--- a/SubRES_TMPL/SubRES_EQ_PEAK.xlsx
+++ b/SubRES_TMPL/SubRES_EQ_PEAK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\newRepo-main\newRepo-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\newRepo-main\newRepo-main\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8793CA-EB26-4477-8A35-CCCAF93E6118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C21B22-623A-490F-8A57-94D7EC1AF036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -83,19 +83,19 @@
     <t>TimeSlice</t>
   </si>
   <si>
-    <t>1R1MOH01</t>
-  </si>
-  <si>
-    <t>1R1MOH02</t>
-  </si>
-  <si>
-    <t>1R1MOH03</t>
-  </si>
-  <si>
-    <t>1R1MOH04</t>
-  </si>
-  <si>
     <t>ELEC_HV</t>
+  </si>
+  <si>
+    <t>1R1MO1H</t>
+  </si>
+  <si>
+    <t>1R1MO2H</t>
+  </si>
+  <si>
+    <t>1R1MO3H</t>
+  </si>
+  <si>
+    <t>1R1MO4H</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>8.2480999999999999E-2</v>
@@ -605,13 +605,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>8.7642999999999999E-2</v>
@@ -622,13 +622,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>8.7522000000000003E-2</v>
@@ -639,13 +639,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0.102677</v>
